--- a/Excel/101_Testes+Entrevistas+9.xlsx
+++ b/Excel/101_Testes+Entrevistas+9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clevison.santos\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BF8224-A289-490A-8833-F9E7AB64C629}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4B9399-F725-4A40-8260-C53A746AC5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C162B555-F4AE-41AA-9236-C559E5C69857}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" activeTab="1" xr2:uid="{C162B555-F4AE-41AA-9236-C559E5C69857}"/>
   </bookViews>
   <sheets>
     <sheet name="Teste 9" sheetId="1" r:id="rId1"/>
@@ -19,32 +19,24 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aluno!$A$10:$E$38</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -59,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="25">
   <si>
     <t>&gt;&gt;</t>
   </si>
@@ -113,6 +105,27 @@
   </si>
   <si>
     <t>Funcionários (Leonardo Almeida, Amanda Martins ou Angela Maria)</t>
+  </si>
+  <si>
+    <t>Adição (+) é o mesmo que dizer para Excel uma condição OU outra condição, então o (+) significa OU.</t>
+  </si>
+  <si>
+    <t>O operador de multiplicação (*)  é o mesmo que dizer para Excel que é uma condição E também a outra condição, então o (*) significa E.</t>
+  </si>
+  <si>
+    <t>Função Filtro só funciona no Excel 365 em diante</t>
+  </si>
+  <si>
+    <t>=FILTRO(A10:E38;(E10:E38&gt;=G56)*(E10:E38&lt;=H56))</t>
+  </si>
+  <si>
+    <t>=FILTRO(A10:E38;(C10:C38&gt;=G32)*(D10:D38&lt;=H32))</t>
+  </si>
+  <si>
+    <t>=FILTRO(A10:E38;(B10:B38=G17)+(B10:B38=H17)+(B10:B38=I17))</t>
+  </si>
+  <si>
+    <t>=FILTRO(G18:K29;(I18:I29&gt;=G32)*(J18:J29&lt;=H32)*(K18:K29&gt;=G56)*(K18:K29&lt;=H56))</t>
   </si>
 </sst>
 </file>
@@ -235,7 +248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -270,12 +283,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -284,6 +291,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -602,62 +618,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D957BC4-26C5-4A20-AE58-7946F32FE6C5}">
   <dimension ref="A2:K71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.26953125" style="2" customWidth="1"/>
-    <col min="3" max="4" width="13.81640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.36328125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.81640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="24.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.07421875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.23046875" style="2" customWidth="1"/>
+    <col min="3" max="4" width="13.84375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.3828125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.84375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="24.53515625" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29" style="5" customWidth="1"/>
-    <col min="9" max="10" width="13.36328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.3828125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.23046875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="26.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="14"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-    </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="26.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+    </row>
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="5">
         <v>1</v>
       </c>
@@ -670,7 +686,7 @@
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
     </row>
-    <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="5">
         <v>2</v>
       </c>
@@ -683,7 +699,7 @@
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
     </row>
-    <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="5">
         <v>3</v>
       </c>
@@ -696,14 +712,14 @@
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
     </row>
-    <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
@@ -735,7 +751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="26" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:11" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A11" s="9">
         <v>1001</v>
       </c>
@@ -753,7 +769,7 @@
         <v>0.20486111110949423</v>
       </c>
       <c r="F11" s="13"/>
-      <c r="G11" s="18" cm="1">
+      <c r="G11" s="16" cm="1">
         <f t="array" ref="G11:K15">_xlfn._xlws.FILTER(G18:K29,(I18:I29&gt;=G32)*(J18:J29&lt;=H32)*(K18:K29&gt;=G56)*(K18:K29&lt;=H56))</f>
         <v>1001</v>
       </c>
@@ -770,7 +786,7 @@
         <v>0.20486111110949423</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="9">
         <v>1002</v>
       </c>
@@ -803,7 +819,7 @@
         <v>0.15277777778101154</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="9">
         <v>1003</v>
       </c>
@@ -836,7 +852,7 @@
         <v>0.19513888889196096</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="9">
         <v>1004</v>
       </c>
@@ -869,7 +885,7 @@
         <v>0.16319444444525288</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="9">
         <v>1005</v>
       </c>
@@ -902,7 +918,7 @@
         <v>0.15138888888759539</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="9">
         <v>1006</v>
       </c>
@@ -920,7 +936,7 @@
         <v>0.15902777777955635</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="9">
         <v>1007</v>
       </c>
@@ -947,7 +963,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="9">
         <v>1008</v>
       </c>
@@ -980,7 +996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="9">
         <v>1009</v>
       </c>
@@ -1014,7 +1030,7 @@
         <v>0.20486111110949423</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="9">
         <v>1010</v>
       </c>
@@ -1047,7 +1063,7 @@
         <v>0.15277777778101154</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="9">
         <v>1011</v>
       </c>
@@ -1080,7 +1096,7 @@
         <v>0.19513888889196096</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="9">
         <v>1012</v>
       </c>
@@ -1113,7 +1129,7 @@
         <v>0.16319444444525288</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="9">
         <v>1013</v>
       </c>
@@ -1146,7 +1162,7 @@
         <v>3.8888888884685002E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="9">
         <v>1014</v>
       </c>
@@ -1179,7 +1195,7 @@
         <v>0.32152777777810115</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" s="9">
         <v>1015</v>
       </c>
@@ -1212,7 +1228,7 @@
         <v>0.15138888888759539</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="9">
         <v>1016</v>
       </c>
@@ -1245,7 +1261,7 @@
         <v>0.36527777777519077</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" s="9">
         <v>1017</v>
       </c>
@@ -1278,7 +1294,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="9">
         <v>1018</v>
       </c>
@@ -1311,7 +1327,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" s="9">
         <v>1019</v>
       </c>
@@ -1344,7 +1360,7 @@
         <v>0.57777777777664596</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" s="9">
         <v>1020</v>
       </c>
@@ -1362,7 +1378,7 @@
         <v>0.36527777777519077</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" s="9">
         <v>1021</v>
       </c>
@@ -1380,7 +1396,7 @@
         <v>0.57569444444379769</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" s="9">
         <v>1022</v>
       </c>
@@ -1404,7 +1420,7 @@
         <v>44670.999988425923</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" s="9">
         <v>1023</v>
       </c>
@@ -1437,7 +1453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="36" x14ac:dyDescent="0.8">
+    <row r="34" spans="1:11" ht="35.6" x14ac:dyDescent="0.9">
       <c r="A34" s="9">
         <v>1024</v>
       </c>
@@ -1454,7 +1470,7 @@
         <f t="shared" si="0"/>
         <v>2.5000000001455192E-2</v>
       </c>
-      <c r="G34" s="16" cm="1">
+      <c r="G34" s="14" cm="1">
         <f t="array" ref="G34:K53">_xlfn._xlws.FILTER(A10:E38,(C10:C38&gt;=G32)*(D10:D38&lt;=H32))</f>
         <v>1001</v>
       </c>
@@ -1471,7 +1487,7 @@
         <v>0.20486111110949423</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" s="9">
         <v>1025</v>
       </c>
@@ -1504,7 +1520,7 @@
         <v>0.40280092592001893</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" s="9">
         <v>1026</v>
       </c>
@@ -1537,7 +1553,7 @@
         <v>0.28125</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" s="9">
         <v>1027</v>
       </c>
@@ -1570,7 +1586,7 @@
         <v>0.15277777778101154</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" s="9">
         <v>1028</v>
       </c>
@@ -1603,7 +1619,7 @@
         <v>2.3611111115314998E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="G39" s="9">
         <v>1006</v>
       </c>
@@ -1620,7 +1636,7 @@
         <v>0.15902777777955635</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="G40" s="9">
         <v>1007</v>
       </c>
@@ -1637,7 +1653,7 @@
         <v>0.19513888889196096</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="G41" s="9">
         <v>1008</v>
       </c>
@@ -1654,7 +1670,7 @@
         <v>0.15763888888614019</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="G42" s="9">
         <v>1009</v>
       </c>
@@ -1671,7 +1687,7 @@
         <v>3.2638888886140194E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="G43" s="9">
         <v>1010</v>
       </c>
@@ -1688,7 +1704,7 @@
         <v>0.16319444444525288</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="G44" s="9">
         <v>1011</v>
       </c>
@@ -1705,7 +1721,7 @@
         <v>3.8888888884685002E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="G45" s="9">
         <v>1012</v>
       </c>
@@ -1722,7 +1738,7 @@
         <v>0.11041666667006211</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="G46" s="9">
         <v>1013</v>
       </c>
@@ -1739,7 +1755,7 @@
         <v>0.15781249999417923</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="G47" s="9">
         <v>1014</v>
       </c>
@@ -1756,7 +1772,7 @@
         <v>0.32152777777810115</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="G48" s="9">
         <v>1015</v>
       </c>
@@ -1773,7 +1789,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="49" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="7:11" x14ac:dyDescent="0.4">
       <c r="G49" s="9">
         <v>1016</v>
       </c>
@@ -1790,7 +1806,7 @@
         <v>0.15138888888759539</v>
       </c>
     </row>
-    <row r="50" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="7:11" x14ac:dyDescent="0.4">
       <c r="G50" s="9">
         <v>1017</v>
       </c>
@@ -1807,7 +1823,7 @@
         <v>0.23958333333575865</v>
       </c>
     </row>
-    <row r="51" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="7:11" x14ac:dyDescent="0.4">
       <c r="G51" s="9">
         <v>1018</v>
       </c>
@@ -1824,7 +1840,7 @@
         <v>0.19791666666424135</v>
       </c>
     </row>
-    <row r="52" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="7:11" x14ac:dyDescent="0.4">
       <c r="G52" s="9">
         <v>1019</v>
       </c>
@@ -1841,7 +1857,7 @@
         <v>0.13124999999854481</v>
       </c>
     </row>
-    <row r="53" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="7:11" x14ac:dyDescent="0.4">
       <c r="G53" s="9">
         <v>1020</v>
       </c>
@@ -1858,7 +1874,7 @@
         <v>0.36527777777519077</v>
       </c>
     </row>
-    <row r="56" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="7:11" x14ac:dyDescent="0.4">
       <c r="G56" s="12">
         <v>0.125</v>
       </c>
@@ -1866,7 +1882,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="57" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="7:11" x14ac:dyDescent="0.4">
       <c r="G57" s="6" t="s">
         <v>5</v>
       </c>
@@ -1883,8 +1899,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="7:11" ht="46" x14ac:dyDescent="1">
-      <c r="G58" s="17" cm="1">
+    <row r="58" spans="7:11" ht="46.3" x14ac:dyDescent="1.2">
+      <c r="G58" s="15" cm="1">
         <f t="array" ref="G58:K71">_xlfn._xlws.FILTER(A10:E38,(E10:E38&gt;=G56)*(E10:E38&lt;=H56))</f>
         <v>1001</v>
       </c>
@@ -1901,7 +1917,7 @@
         <v>0.20486111110949423</v>
       </c>
     </row>
-    <row r="59" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="7:11" x14ac:dyDescent="0.4">
       <c r="G59" s="9">
         <v>1004</v>
       </c>
@@ -1918,7 +1934,7 @@
         <v>0.15277777778101154</v>
       </c>
     </row>
-    <row r="60" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="7:11" x14ac:dyDescent="0.4">
       <c r="G60" s="9">
         <v>1006</v>
       </c>
@@ -1935,7 +1951,7 @@
         <v>0.15902777777955635</v>
       </c>
     </row>
-    <row r="61" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="7:11" x14ac:dyDescent="0.4">
       <c r="G61" s="9">
         <v>1007</v>
       </c>
@@ -1952,7 +1968,7 @@
         <v>0.19513888889196096</v>
       </c>
     </row>
-    <row r="62" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="7:11" x14ac:dyDescent="0.4">
       <c r="G62" s="9">
         <v>1008</v>
       </c>
@@ -1969,7 +1985,7 @@
         <v>0.15763888888614019</v>
       </c>
     </row>
-    <row r="63" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="7:11" x14ac:dyDescent="0.4">
       <c r="G63" s="9">
         <v>1010</v>
       </c>
@@ -1986,7 +2002,7 @@
         <v>0.16319444444525288</v>
       </c>
     </row>
-    <row r="64" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="7:11" x14ac:dyDescent="0.4">
       <c r="G64" s="9">
         <v>1013</v>
       </c>
@@ -2003,7 +2019,7 @@
         <v>0.15781249999417923</v>
       </c>
     </row>
-    <row r="65" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="7:11" x14ac:dyDescent="0.4">
       <c r="G65" s="9">
         <v>1015</v>
       </c>
@@ -2020,7 +2036,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="66" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="7:11" x14ac:dyDescent="0.4">
       <c r="G66" s="9">
         <v>1016</v>
       </c>
@@ -2037,7 +2053,7 @@
         <v>0.15138888888759539</v>
       </c>
     </row>
-    <row r="67" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="7:11" x14ac:dyDescent="0.4">
       <c r="G67" s="9">
         <v>1018</v>
       </c>
@@ -2054,7 +2070,7 @@
         <v>0.19791666666424135</v>
       </c>
     </row>
-    <row r="68" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="7:11" x14ac:dyDescent="0.4">
       <c r="G68" s="9">
         <v>1019</v>
       </c>
@@ -2071,7 +2087,7 @@
         <v>0.13124999999854481</v>
       </c>
     </row>
-    <row r="69" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="7:11" x14ac:dyDescent="0.4">
       <c r="G69" s="9">
         <v>1023</v>
       </c>
@@ -2088,7 +2104,7 @@
         <v>0.17222222222335404</v>
       </c>
     </row>
-    <row r="70" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="7:11" x14ac:dyDescent="0.4">
       <c r="G70" s="9">
         <v>1025</v>
       </c>
@@ -2105,7 +2121,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="71" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="7:11" x14ac:dyDescent="0.4">
       <c r="G71" s="9">
         <v>1026</v>
       </c>
@@ -2134,64 +2150,64 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B5BB4B-9DB1-4C58-A17A-D4D02A2D11A0}">
-  <dimension ref="A2:K71"/>
+  <dimension ref="A2:K79"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.26953125" style="2" customWidth="1"/>
-    <col min="3" max="4" width="13.81640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.36328125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.81640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="24.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.07421875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.23046875" style="2" customWidth="1"/>
+    <col min="3" max="4" width="13.84375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.3828125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.84375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="24.53515625" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29" style="5" customWidth="1"/>
-    <col min="9" max="10" width="13.36328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.3828125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.23046875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="26.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="14"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-    </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="26.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+    </row>
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="5">
         <v>1</v>
       </c>
@@ -2204,7 +2220,7 @@
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
     </row>
-    <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="5">
         <v>2</v>
       </c>
@@ -2217,7 +2233,7 @@
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
     </row>
-    <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="5">
         <v>3</v>
       </c>
@@ -2230,14 +2246,14 @@
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
     </row>
-    <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
@@ -2269,7 +2285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="39" x14ac:dyDescent="0.4">
       <c r="A11" s="9">
         <v>1001</v>
       </c>
@@ -2287,13 +2303,15 @@
         <v>0.20486111110949423</v>
       </c>
       <c r="F11" s="13"/>
-      <c r="G11" s="9"/>
+      <c r="G11" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="H11" s="9"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="9">
         <v>1002</v>
       </c>
@@ -2316,7 +2334,7 @@
       <c r="J12" s="10"/>
       <c r="K12" s="12"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="9">
         <v>1003</v>
       </c>
@@ -2339,7 +2357,7 @@
       <c r="J13" s="10"/>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="9">
         <v>1004</v>
       </c>
@@ -2362,7 +2380,7 @@
       <c r="J14" s="10"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="9">
         <v>1005</v>
       </c>
@@ -2385,7 +2403,7 @@
       <c r="J15" s="10"/>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="9">
         <v>1006</v>
       </c>
@@ -2403,7 +2421,7 @@
         <v>0.15902777777955635</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="9">
         <v>1007</v>
       </c>
@@ -2430,7 +2448,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="9">
         <v>1008</v>
       </c>
@@ -2463,7 +2481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="39" x14ac:dyDescent="0.4">
       <c r="A19" s="9">
         <v>1009</v>
       </c>
@@ -2480,13 +2498,15 @@
         <f t="shared" si="0"/>
         <v>3.2638888886140194E-2</v>
       </c>
-      <c r="G19" s="9"/>
+      <c r="G19" s="19" t="s">
+        <v>23</v>
+      </c>
       <c r="H19" s="9"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="12"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="9">
         <v>1010</v>
       </c>
@@ -2509,7 +2529,7 @@
       <c r="J20" s="10"/>
       <c r="K20" s="12"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="9">
         <v>1011</v>
       </c>
@@ -2532,7 +2552,7 @@
       <c r="J21" s="10"/>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="9">
         <v>1012</v>
       </c>
@@ -2555,7 +2575,7 @@
       <c r="J22" s="10"/>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="9">
         <v>1013</v>
       </c>
@@ -2578,7 +2598,7 @@
       <c r="J23" s="10"/>
       <c r="K23" s="12"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="9">
         <v>1014</v>
       </c>
@@ -2601,7 +2621,7 @@
       <c r="J24" s="10"/>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" s="9">
         <v>1015</v>
       </c>
@@ -2624,7 +2644,7 @@
       <c r="J25" s="10"/>
       <c r="K25" s="12"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="9">
         <v>1016</v>
       </c>
@@ -2647,7 +2667,7 @@
       <c r="J26" s="10"/>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" s="9">
         <v>1017</v>
       </c>
@@ -2670,7 +2690,7 @@
       <c r="J27" s="10"/>
       <c r="K27" s="12"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="9">
         <v>1018</v>
       </c>
@@ -2693,7 +2713,7 @@
       <c r="J28" s="10"/>
       <c r="K28" s="12"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" s="9">
         <v>1019</v>
       </c>
@@ -2716,7 +2736,7 @@
       <c r="J29" s="10"/>
       <c r="K29" s="12"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" s="9">
         <v>1020</v>
       </c>
@@ -2734,7 +2754,7 @@
         <v>0.36527777777519077</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" s="9">
         <v>1021</v>
       </c>
@@ -2752,7 +2772,7 @@
         <v>0.57569444444379769</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" s="9">
         <v>1022</v>
       </c>
@@ -2776,7 +2796,7 @@
         <v>44670.999988425923</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" s="9">
         <v>1023</v>
       </c>
@@ -2809,7 +2829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" ht="26.15" x14ac:dyDescent="0.4">
       <c r="A34" s="9">
         <v>1024</v>
       </c>
@@ -2826,13 +2846,15 @@
         <f t="shared" si="0"/>
         <v>2.5000000001455192E-2</v>
       </c>
-      <c r="G34" s="9"/>
+      <c r="G34" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="H34" s="9"/>
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
       <c r="K34" s="12"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" s="9">
         <v>1025</v>
       </c>
@@ -2855,7 +2877,7 @@
       <c r="J35" s="10"/>
       <c r="K35" s="12"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" s="9">
         <v>1026</v>
       </c>
@@ -2878,7 +2900,7 @@
       <c r="J36" s="10"/>
       <c r="K36" s="12"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" s="9">
         <v>1027</v>
       </c>
@@ -2901,7 +2923,7 @@
       <c r="J37" s="10"/>
       <c r="K37" s="12"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" s="9">
         <v>1028</v>
       </c>
@@ -2924,112 +2946,112 @@
       <c r="J38" s="10"/>
       <c r="K38" s="12"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="10"/>
       <c r="J39" s="10"/>
       <c r="K39" s="12"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
       <c r="K40" s="12"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
       <c r="K41" s="12"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
       <c r="K42" s="12"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
       <c r="K43" s="12"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
       <c r="K44" s="12"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
       <c r="K45" s="12"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
       <c r="K46" s="12"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
       <c r="K47" s="12"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
       <c r="K48" s="12"/>
     </row>
-    <row r="49" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="7:11" x14ac:dyDescent="0.4">
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
       <c r="K49" s="12"/>
     </row>
-    <row r="50" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="7:11" x14ac:dyDescent="0.4">
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
       <c r="K50" s="12"/>
     </row>
-    <row r="51" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="7:11" x14ac:dyDescent="0.4">
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
       <c r="K51" s="12"/>
     </row>
-    <row r="52" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="7:11" x14ac:dyDescent="0.4">
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
       <c r="K52" s="12"/>
     </row>
-    <row r="53" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="7:11" x14ac:dyDescent="0.4">
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
       <c r="K53" s="12"/>
     </row>
-    <row r="56" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="7:11" x14ac:dyDescent="0.4">
       <c r="G56" s="12">
         <v>0.125</v>
       </c>
@@ -3037,7 +3059,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="57" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="7:11" x14ac:dyDescent="0.4">
       <c r="G57" s="6" t="s">
         <v>5</v>
       </c>
@@ -3054,103 +3076,120 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="7:11" x14ac:dyDescent="0.35">
-      <c r="G58" s="9"/>
+    <row r="58" spans="7:11" ht="26.15" x14ac:dyDescent="0.4">
+      <c r="G58" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="H58" s="9"/>
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
       <c r="K58" s="12"/>
     </row>
-    <row r="59" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="7:11" x14ac:dyDescent="0.4">
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
       <c r="K59" s="12"/>
     </row>
-    <row r="60" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="7:11" x14ac:dyDescent="0.4">
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
       <c r="I60" s="10"/>
       <c r="J60" s="10"/>
       <c r="K60" s="12"/>
     </row>
-    <row r="61" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="7:11" x14ac:dyDescent="0.4">
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
       <c r="I61" s="10"/>
       <c r="J61" s="10"/>
       <c r="K61" s="12"/>
     </row>
-    <row r="62" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="7:11" x14ac:dyDescent="0.4">
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
       <c r="I62" s="10"/>
       <c r="J62" s="10"/>
       <c r="K62" s="12"/>
     </row>
-    <row r="63" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="7:11" x14ac:dyDescent="0.4">
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
       <c r="I63" s="10"/>
       <c r="J63" s="10"/>
       <c r="K63" s="12"/>
     </row>
-    <row r="64" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="7:11" x14ac:dyDescent="0.4">
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
       <c r="I64" s="10"/>
       <c r="J64" s="10"/>
       <c r="K64" s="12"/>
     </row>
-    <row r="65" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="7:11" x14ac:dyDescent="0.4">
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
       <c r="I65" s="10"/>
       <c r="J65" s="10"/>
       <c r="K65" s="12"/>
     </row>
-    <row r="66" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="7:11" x14ac:dyDescent="0.4">
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
       <c r="I66" s="10"/>
       <c r="J66" s="10"/>
       <c r="K66" s="12"/>
     </row>
-    <row r="67" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="7:11" x14ac:dyDescent="0.4">
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
       <c r="I67" s="10"/>
       <c r="J67" s="10"/>
       <c r="K67" s="12"/>
     </row>
-    <row r="68" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="7:11" x14ac:dyDescent="0.4">
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
       <c r="I68" s="10"/>
       <c r="J68" s="10"/>
       <c r="K68" s="12"/>
     </row>
-    <row r="69" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="7:11" x14ac:dyDescent="0.4">
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
       <c r="I69" s="10"/>
       <c r="J69" s="10"/>
       <c r="K69" s="12"/>
     </row>
-    <row r="70" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="7:11" x14ac:dyDescent="0.4">
       <c r="G70" s="9"/>
       <c r="H70" s="9"/>
       <c r="I70" s="10"/>
       <c r="J70" s="10"/>
       <c r="K70" s="12"/>
     </row>
-    <row r="71" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="7:11" x14ac:dyDescent="0.4">
       <c r="G71" s="9"/>
       <c r="H71" s="9"/>
       <c r="I71" s="10"/>
       <c r="J71" s="10"/>
       <c r="K71" s="12"/>
+    </row>
+    <row r="73" spans="7:11" x14ac:dyDescent="0.4">
+      <c r="G73" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="7:11" x14ac:dyDescent="0.4">
+      <c r="G75" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="7:11" x14ac:dyDescent="0.4">
+      <c r="G79" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
